--- a/data/promo/price.xlsx
+++ b/data/promo/price.xlsx
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
